--- a/testing_03112024/nonoptimz/youtube_comments_predictions.xlsx
+++ b/testing_03112024/nonoptimz/youtube_comments_predictions.xlsx
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
         <v>1</v>
@@ -3589,7 +3589,7 @@
         <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -7923,7 +7923,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
         <v>1</v>
@@ -8852,7 +8852,7 @@
         <v>0</v>
       </c>
       <c r="AA77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB77" t="n">
         <v>1</v>
@@ -8940,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" t="n">
         <v>1</v>
@@ -10443,7 +10443,7 @@
         <v>1</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>1</v>
@@ -13781,7 +13781,7 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="M130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130" t="n">
         <v>1</v>
@@ -14578,7 +14578,7 @@
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U130" t="n">
         <v>1</v>
@@ -14599,7 +14599,7 @@
         <v>0</v>
       </c>
       <c r="AA130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB130" t="n">
         <v>1</v>
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="M153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="AA153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB153" t="n">
         <v>0</v>
@@ -17803,7 +17803,7 @@
         <v>0</v>
       </c>
       <c r="M160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160" t="n">
         <v>1</v>
@@ -17824,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="T160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U160" t="n">
         <v>1</v>
@@ -18649,7 +18649,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -18670,7 +18670,7 @@
         <v>1</v>
       </c>
       <c r="M168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N168" t="n">
         <v>1</v>
@@ -19407,7 +19407,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -19535,7 +19535,7 @@
         <v>1</v>
       </c>
       <c r="M176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
         <v>1</v>
@@ -26235,7 +26235,7 @@
         <v>1</v>
       </c>
       <c r="M238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N238" t="n">
         <v>1</v>
@@ -26256,7 +26256,7 @@
         <v>1</v>
       </c>
       <c r="T238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U238" t="n">
         <v>1</v>
@@ -26644,7 +26644,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -26860,7 +26860,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -26902,7 +26902,7 @@
         <v>1</v>
       </c>
       <c r="T244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U244" t="n">
         <v>1</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -27973,7 +27973,7 @@
         <v>1</v>
       </c>
       <c r="T254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U254" t="n">
         <v>1</v>
@@ -31062,7 +31062,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -31104,7 +31104,7 @@
         <v>0</v>
       </c>
       <c r="T283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U283" t="n">
         <v>1</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -31831,7 +31831,7 @@
         <v>1</v>
       </c>
       <c r="M290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N290" t="n">
         <v>1</v>
@@ -31852,7 +31852,7 @@
         <v>1</v>
       </c>
       <c r="T290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U290" t="n">
         <v>1</v>
@@ -33308,7 +33308,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -33329,7 +33329,7 @@
         <v>1</v>
       </c>
       <c r="M304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N304" t="n">
         <v>1</v>
@@ -33549,7 +33549,7 @@
         <v>1</v>
       </c>
       <c r="M306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N306" t="n">
         <v>1</v>
@@ -36850,7 +36850,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -36871,7 +36871,7 @@
         <v>1</v>
       </c>
       <c r="M337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N337" t="n">
         <v>1</v>
@@ -36913,7 +36913,7 @@
         <v>1</v>
       </c>
       <c r="AA337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB337" t="n">
         <v>1</v>
@@ -39104,7 +39104,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -39320,7 +39320,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -40139,7 +40139,7 @@
         <v>1</v>
       </c>
       <c r="AA367" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB367" t="n">
         <v>1</v>
@@ -40183,7 +40183,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -40397,7 +40397,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -40439,7 +40439,7 @@
         <v>1</v>
       </c>
       <c r="T370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U370" t="n">
         <v>1</v>
@@ -40460,7 +40460,7 @@
         <v>1</v>
       </c>
       <c r="AA370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB370" t="n">
         <v>1</v>
@@ -40611,7 +40611,7 @@
         </is>
       </c>
       <c r="F372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -40632,7 +40632,7 @@
         <v>1</v>
       </c>
       <c r="M372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N372" t="n">
         <v>1</v>
@@ -45225,7 +45225,7 @@
         </is>
       </c>
       <c r="F415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G415" t="n">
         <v>0</v>
@@ -45246,7 +45246,7 @@
         <v>0</v>
       </c>
       <c r="M415" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N415" t="n">
         <v>0</v>
@@ -46937,7 +46937,7 @@
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G431" t="n">
         <v>0</v>
@@ -47000,7 +47000,7 @@
         <v>0</v>
       </c>
       <c r="AA431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB431" t="n">
         <v>0</v>
@@ -49404,7 +49404,7 @@
         </is>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -50693,7 +50693,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -50735,7 +50735,7 @@
         <v>0</v>
       </c>
       <c r="T466" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U466" t="n">
         <v>1</v>
@@ -54659,7 +54659,7 @@
         </is>
       </c>
       <c r="F503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G503" t="n">
         <v>1</v>
@@ -54722,7 +54722,7 @@
         <v>1</v>
       </c>
       <c r="AA503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB503" t="n">
         <v>1</v>
@@ -56050,7 +56050,7 @@
         </is>
       </c>
       <c r="F516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -57150,7 +57150,7 @@
         <v>1</v>
       </c>
       <c r="M526" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N526" t="n">
         <v>1</v>
@@ -58521,7 +58521,7 @@
         </is>
       </c>
       <c r="F539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -58542,7 +58542,7 @@
         <v>1</v>
       </c>
       <c r="M539" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N539" t="n">
         <v>1</v>
@@ -58970,7 +58970,7 @@
         <v>1</v>
       </c>
       <c r="M543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N543" t="n">
         <v>1</v>
@@ -59166,7 +59166,7 @@
         </is>
       </c>
       <c r="F545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G545" t="n">
         <v>0</v>
@@ -59187,7 +59187,7 @@
         <v>0</v>
       </c>
       <c r="M545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N545" t="n">
         <v>0</v>
@@ -59208,7 +59208,7 @@
         <v>0</v>
       </c>
       <c r="T545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U545" t="n">
         <v>0</v>
@@ -59705,7 +59705,7 @@
         </is>
       </c>
       <c r="F550" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -59726,7 +59726,7 @@
         <v>1</v>
       </c>
       <c r="M550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N550" t="n">
         <v>1</v>
@@ -60133,7 +60133,7 @@
         </is>
       </c>
       <c r="F554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -62377,7 +62377,7 @@
         </is>
       </c>
       <c r="F575" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -62698,7 +62698,7 @@
         </is>
       </c>
       <c r="F578" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -69045,7 +69045,7 @@
         </is>
       </c>
       <c r="F637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -69066,7 +69066,7 @@
         <v>1</v>
       </c>
       <c r="M637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N637" t="n">
         <v>1</v>
@@ -69087,7 +69087,7 @@
         <v>1</v>
       </c>
       <c r="T637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U637" t="n">
         <v>1</v>
@@ -69108,7 +69108,7 @@
         <v>1</v>
       </c>
       <c r="AA637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB637" t="n">
         <v>1</v>

--- a/testing_03112024/nonoptimz/youtube_comments_predictions.xlsx
+++ b/testing_03112024/nonoptimz/youtube_comments_predictions.xlsx
@@ -1715,7 +1715,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -7275,7 +7275,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
         <v>1</v>
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
         <v>1</v>
@@ -8940,7 +8940,7 @@
         <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78" t="n">
         <v>1</v>
@@ -12810,7 +12810,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -13605,7 +13605,7 @@
         <v>1</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U121" t="n">
         <v>1</v>
@@ -14536,7 +14536,7 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -15079,7 +15079,7 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>0</v>
@@ -15100,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -15121,7 +15121,7 @@
         <v>0</v>
       </c>
       <c r="T135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U135" t="n">
         <v>0</v>
@@ -17026,7 +17026,7 @@
         </is>
       </c>
       <c r="F153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -17068,7 +17068,7 @@
         <v>0</v>
       </c>
       <c r="T153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U153" t="n">
         <v>0</v>
@@ -17089,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="AA153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB153" t="n">
         <v>0</v>
@@ -17782,7 +17782,7 @@
         </is>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -17824,7 +17824,7 @@
         <v>0</v>
       </c>
       <c r="T160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U160" t="n">
         <v>1</v>
@@ -18649,7 +18649,7 @@
         </is>
       </c>
       <c r="F168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -19407,7 +19407,7 @@
         </is>
       </c>
       <c r="F175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -26214,7 +26214,7 @@
         </is>
       </c>
       <c r="F238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -26235,7 +26235,7 @@
         <v>1</v>
       </c>
       <c r="M238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N238" t="n">
         <v>1</v>
@@ -26644,7 +26644,7 @@
         </is>
       </c>
       <c r="F242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -26686,7 +26686,7 @@
         <v>0</v>
       </c>
       <c r="T242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U242" t="n">
         <v>1</v>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="AA242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB242" t="n">
         <v>1</v>
@@ -26860,7 +26860,7 @@
         </is>
       </c>
       <c r="F244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -26881,7 +26881,7 @@
         <v>1</v>
       </c>
       <c r="M244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N244" t="n">
         <v>1</v>
@@ -26967,7 +26967,7 @@
         </is>
       </c>
       <c r="F245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -27030,7 +27030,7 @@
         <v>1</v>
       </c>
       <c r="AA245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB245" t="n">
         <v>1</v>
@@ -27824,7 +27824,7 @@
         </is>
       </c>
       <c r="F253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="F254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -27994,7 +27994,7 @@
         <v>1</v>
       </c>
       <c r="AA254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB254" t="n">
         <v>1</v>
@@ -31062,7 +31062,7 @@
         </is>
       </c>
       <c r="F283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -31083,7 +31083,7 @@
         <v>0</v>
       </c>
       <c r="M283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N283" t="n">
         <v>1</v>
@@ -31125,7 +31125,7 @@
         <v>0</v>
       </c>
       <c r="AA283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB283" t="n">
         <v>1</v>
@@ -31810,7 +31810,7 @@
         </is>
       </c>
       <c r="F290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -31852,7 +31852,7 @@
         <v>1</v>
       </c>
       <c r="T290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U290" t="n">
         <v>1</v>
@@ -32579,7 +32579,7 @@
         <v>1</v>
       </c>
       <c r="M297" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N297" t="n">
         <v>1</v>
@@ -33308,7 +33308,7 @@
         </is>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -33528,7 +33528,7 @@
         </is>
       </c>
       <c r="F306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -33549,7 +33549,7 @@
         <v>1</v>
       </c>
       <c r="M306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N306" t="n">
         <v>1</v>
@@ -35799,7 +35799,7 @@
         <v>0</v>
       </c>
       <c r="M327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N327" t="n">
         <v>1</v>
@@ -36850,7 +36850,7 @@
         </is>
       </c>
       <c r="F337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -36892,7 +36892,7 @@
         <v>1</v>
       </c>
       <c r="T337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U337" t="n">
         <v>1</v>
@@ -38909,7 +38909,7 @@
         <v>1</v>
       </c>
       <c r="M356" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N356" t="n">
         <v>0</v>
@@ -39104,7 +39104,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -39320,7 +39320,7 @@
         </is>
       </c>
       <c r="F360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -40183,7 +40183,7 @@
         </is>
       </c>
       <c r="F368" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -40397,7 +40397,7 @@
         </is>
       </c>
       <c r="F370" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -40632,7 +40632,7 @@
         <v>1</v>
       </c>
       <c r="M372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N372" t="n">
         <v>1</v>
@@ -43548,7 +43548,7 @@
         <v>0</v>
       </c>
       <c r="T399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U399" t="n">
         <v>1</v>
@@ -43569,7 +43569,7 @@
         <v>0</v>
       </c>
       <c r="AA399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB399" t="n">
         <v>1</v>
@@ -45225,7 +45225,7 @@
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G415" t="n">
         <v>0</v>
@@ -45246,7 +45246,7 @@
         <v>0</v>
       </c>
       <c r="M415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N415" t="n">
         <v>0</v>
@@ -46979,7 +46979,7 @@
         <v>0</v>
       </c>
       <c r="T431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U431" t="n">
         <v>0</v>
@@ -47000,7 +47000,7 @@
         <v>0</v>
       </c>
       <c r="AA431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB431" t="n">
         <v>0</v>
@@ -47708,7 +47708,7 @@
         <v>1</v>
       </c>
       <c r="M438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N438" t="n">
         <v>1</v>
@@ -49404,7 +49404,7 @@
         </is>
       </c>
       <c r="F454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -49446,7 +49446,7 @@
         <v>1</v>
       </c>
       <c r="T454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U454" t="n">
         <v>1</v>
@@ -50693,7 +50693,7 @@
         </is>
       </c>
       <c r="F466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G466" t="n">
         <v>1</v>
@@ -50735,7 +50735,7 @@
         <v>0</v>
       </c>
       <c r="T466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U466" t="n">
         <v>1</v>
@@ -50756,7 +50756,7 @@
         <v>1</v>
       </c>
       <c r="AA466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB466" t="n">
         <v>1</v>
@@ -54680,7 +54680,7 @@
         <v>1</v>
       </c>
       <c r="M503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N503" t="n">
         <v>1</v>
@@ -54701,7 +54701,7 @@
         <v>1</v>
       </c>
       <c r="T503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U503" t="n">
         <v>1</v>
@@ -56050,7 +56050,7 @@
         </is>
       </c>
       <c r="F516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G516" t="n">
         <v>1</v>
@@ -57129,7 +57129,7 @@
         </is>
       </c>
       <c r="F526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G526" t="n">
         <v>1</v>
@@ -57150,7 +57150,7 @@
         <v>1</v>
       </c>
       <c r="M526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N526" t="n">
         <v>1</v>
@@ -57171,7 +57171,7 @@
         <v>1</v>
       </c>
       <c r="T526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U526" t="n">
         <v>1</v>
@@ -58521,7 +58521,7 @@
         </is>
       </c>
       <c r="F539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G539" t="n">
         <v>1</v>
@@ -58542,7 +58542,7 @@
         <v>1</v>
       </c>
       <c r="M539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N539" t="n">
         <v>1</v>
@@ -59166,7 +59166,7 @@
         </is>
       </c>
       <c r="F545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G545" t="n">
         <v>0</v>
@@ -59187,7 +59187,7 @@
         <v>0</v>
       </c>
       <c r="M545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N545" t="n">
         <v>0</v>
@@ -59208,7 +59208,7 @@
         <v>0</v>
       </c>
       <c r="T545" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U545" t="n">
         <v>0</v>
@@ -59705,7 +59705,7 @@
         </is>
       </c>
       <c r="F550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G550" t="n">
         <v>1</v>
@@ -60133,7 +60133,7 @@
         </is>
       </c>
       <c r="F554" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G554" t="n">
         <v>1</v>
@@ -62377,7 +62377,7 @@
         </is>
       </c>
       <c r="F575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G575" t="n">
         <v>1</v>
@@ -62698,7 +62698,7 @@
         </is>
       </c>
       <c r="F578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G578" t="n">
         <v>1</v>
@@ -69045,7 +69045,7 @@
         </is>
       </c>
       <c r="F637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -69066,7 +69066,7 @@
         <v>1</v>
       </c>
       <c r="M637" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N637" t="n">
         <v>1</v>
@@ -69087,7 +69087,7 @@
         <v>1</v>
       </c>
       <c r="T637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U637" t="n">
         <v>1</v>
